--- a/superSpider/spiders/20160115_경매물건DB.xlsx
+++ b/superSpider/spiders/20160115_경매물건DB.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>사건번호</t>
+  </si>
+  <si>
+    <t>성명</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>감정가 / 최저가</t>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
   <si>
     <t>천년목사골한우영농조합법인</t>
   </si>
@@ -25,7 +40,7 @@
     <t>전남 나주시 왕곡면 장산리 393 가동호(58275) 전남 나주시 왕곡면 불로길 7-19</t>
   </si>
   <si>
-    <t>508,879,200(15.03.31)&lt;br style='mso-data-placement:same-cell;'&gt; 356,215,000(70%)</t>
+    <t>508,879,200(15.03.31) / 356,215,000(70%)</t>
   </si>
   <si>
     <t>성우용</t>
@@ -37,7 +52,7 @@
     <t>서울 성북구 돈암동 609-1 한신 111동 3층 301호(02831) 서울 성북구 성북로4길 52</t>
   </si>
   <si>
-    <t>500,000,000(14.07.03)&lt;br style='mso-data-placement:same-cell;'&gt; 500,000,000(100%)</t>
+    <t>500,000,000(14.07.03) / 500,000,000(100%)</t>
   </si>
   <si>
     <t>김서연</t>
@@ -49,7 +64,7 @@
     <t>전북 전주시 완산구 서신동 945-6[일괄]-7,(54943) 전북 전주시 완산구 고사평1길 8-5</t>
   </si>
   <si>
-    <t>549,901,060(15.08.03)&lt;br style='mso-data-placement:same-cell;'&gt; 384,931,000(70%)</t>
+    <t>549,901,060(15.08.03) / 384,931,000(70%)</t>
   </si>
   <si>
     <t>금영숙</t>
@@ -61,7 +76,7 @@
     <t>경남 김해시 진영읍 진영리 1585-25(50862) 경남 김해시 진영읍 진산대로54번길 5-7</t>
   </si>
   <si>
-    <t>535,903,200(15.08.13)&lt;br style='mso-data-placement:same-cell;'&gt; 535,903,200(100%)</t>
+    <t>535,903,200(15.08.13) / 535,903,200(100%)</t>
   </si>
   <si>
     <t>(주)묘성</t>
@@ -73,7 +88,7 @@
     <t>강원 춘천시 남산면 창촌리 70-8[일괄]-6,</t>
   </si>
   <si>
-    <t>559,923,000(15.09.02)&lt;br style='mso-data-placement:same-cell;'&gt; 391,946,000(70%)</t>
+    <t>559,923,000(15.09.02) / 391,946,000(70%)</t>
   </si>
   <si>
     <t>손영진</t>
@@ -85,7 +100,7 @@
     <t>서울 용산구 한남동 760-2</t>
   </si>
   <si>
-    <t>517,280,000(13.10.31)&lt;br style='mso-data-placement:same-cell;'&gt; 331,059,000(64%)</t>
+    <t>517,280,000(13.10.31) / 331,059,000(64%)</t>
   </si>
   <si>
     <t>황창호</t>
@@ -97,7 +112,7 @@
     <t>경기 고양시 일산서구 가좌동 1105 가좌마을7단지 꿈에그린 703동 18층 1804호(10214) 경기 고양시 일산서구 송포로 207</t>
   </si>
   <si>
-    <t>560,000,000(15.10.12)&lt;br style='mso-data-placement:same-cell;'&gt; 560,000,000(100%)</t>
+    <t>560,000,000(15.10.12) / 560,000,000(100%)</t>
   </si>
   <si>
     <t>방정미</t>
@@ -109,7 +124,7 @@
     <t>경기 시흥시 미산동 350-15 해가든더클래식 104동 21층 2101호(14944) 경기 시흥시 미산로100번길 11</t>
   </si>
   <si>
-    <t>551,000,000(14.08.22)&lt;br style='mso-data-placement:same-cell;'&gt; 385,700,000(70%)</t>
+    <t>551,000,000(14.08.22) / 385,700,000(70%)</t>
   </si>
   <si>
     <t>남현지</t>
@@ -121,7 +136,7 @@
     <t>경기 양주시 백석읍 방성리 493[일괄]494-,</t>
   </si>
   <si>
-    <t>560,564,000(15.01.16)&lt;br style='mso-data-placement:same-cell;'&gt; 358,761,000(64%)</t>
+    <t>560,564,000(15.01.16) / 358,761,000(64%)</t>
   </si>
   <si>
     <t>엄재권</t>
@@ -133,7 +148,7 @@
     <t>강원 춘천시 남산면 방곡리 126-11(24465) 강원 춘천시 남산면 한치로 51-1</t>
   </si>
   <si>
-    <t>582,206,720(15.06.04)&lt;br style='mso-data-placement:same-cell;'&gt; 407,545,000(70%)</t>
+    <t>582,206,720(15.06.04) / 407,545,000(70%)</t>
   </si>
   <si>
     <t>장필선</t>
@@ -145,7 +160,7 @@
     <t>경북 구미시 도량동 322-22(39200) 경북 구미시 도봉로5안길 7-3</t>
   </si>
   <si>
-    <t>519,150,000(15.09.23)&lt;br style='mso-data-placement:same-cell;'&gt; 519,150,000(100%)</t>
+    <t>519,150,000(15.09.23) / 519,150,000(100%)</t>
   </si>
   <si>
     <t>김교환</t>
@@ -157,7 +172,7 @@
     <t>충북 청주시 상당구 용암동 2876(28761) 충북 청주시 상당구 용암북로206번길 6</t>
   </si>
   <si>
-    <t>517,662,480(15.05.28)&lt;br style='mso-data-placement:same-cell;'&gt; 414,130,000(80%)</t>
+    <t>517,662,480(15.05.28) / 414,130,000(80%)</t>
   </si>
   <si>
     <t>김광진</t>
@@ -169,7 +184,7 @@
     <t>경기 양주시 장흥면 일영리 79-2[일괄]80-, 81-2, 66-1, -1,</t>
   </si>
   <si>
-    <t>536,452,000(15.06.18)&lt;br style='mso-data-placement:same-cell;'&gt; 429,162,000(80%)</t>
+    <t>536,452,000(15.06.18) / 429,162,000(80%)</t>
   </si>
   <si>
     <t>박윤</t>
@@ -181,7 +196,7 @@
     <t>경기 고양시 일산서구 가좌동 1105 가좌마을 7단지꿈에그린 706동 8층 804호(10214) 경기 고양시 일산서구 송포로 207</t>
   </si>
   <si>
-    <t>520,000,000(15.04.27)&lt;br style='mso-data-placement:same-cell;'&gt; 520,000,000(100%)</t>
+    <t>520,000,000(15.04.27) / 520,000,000(100%)</t>
   </si>
   <si>
     <t>성창희외2/성창희외1</t>
@@ -193,7 +208,7 @@
     <t>전북 익산시 마동 76-11 ,-47[일괄]-47,(54613) 전북 익산시 서동로30길 19</t>
   </si>
   <si>
-    <t>518,043,500(15.08.12)&lt;br style='mso-data-placement:same-cell;'&gt; 253,841,000(49%)</t>
+    <t>518,043,500(15.08.12) / 253,841,000(49%)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +550,7 @@
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,201 +563,218 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/superSpider/spiders/20160115_경매물건DB.xlsx
+++ b/superSpider/spiders/20160115_경매물건DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>사건번호</t>
   </si>
@@ -25,190 +25,193 @@
     <t>주소</t>
   </si>
   <si>
-    <t>감정가 / 최저가</t>
+    <t>감정가</t>
+  </si>
+  <si>
+    <t>최저가</t>
   </si>
   <si>
     <t>상태</t>
   </si>
   <si>
-    <t>천년목사골한우영농조합법인</t>
-  </si>
-  <si>
-    <t>광주6계</t>
-  </si>
-  <si>
-    <t>전남 나주시 왕곡면 장산리 393 가동호(58275) 전남 나주시 왕곡면 불로길 7-19</t>
-  </si>
-  <si>
-    <t>508,879,200(15.03.31) / 356,215,000(70%)</t>
-  </si>
-  <si>
-    <t>성우용</t>
-  </si>
-  <si>
-    <t>북부2계</t>
-  </si>
-  <si>
-    <t>서울 성북구 돈암동 609-1 한신 111동 3층 301호(02831) 서울 성북구 성북로4길 52</t>
-  </si>
-  <si>
-    <t>500,000,000(14.07.03) / 500,000,000(100%)</t>
-  </si>
-  <si>
-    <t>김서연</t>
-  </si>
-  <si>
-    <t>전주5계</t>
-  </si>
-  <si>
-    <t>전북 전주시 완산구 서신동 945-6[일괄]-7,(54943) 전북 전주시 완산구 고사평1길 8-5</t>
-  </si>
-  <si>
-    <t>549,901,060(15.08.03) / 384,931,000(70%)</t>
-  </si>
-  <si>
-    <t>금영숙</t>
-  </si>
-  <si>
-    <t>창원3계</t>
-  </si>
-  <si>
-    <t>경남 김해시 진영읍 진영리 1585-25(50862) 경남 김해시 진영읍 진산대로54번길 5-7</t>
-  </si>
-  <si>
-    <t>535,903,200(15.08.13) / 535,903,200(100%)</t>
-  </si>
-  <si>
-    <t>(주)묘성</t>
-  </si>
-  <si>
-    <t>춘천2계</t>
-  </si>
-  <si>
-    <t>강원 춘천시 남산면 창촌리 70-8[일괄]-6,</t>
-  </si>
-  <si>
-    <t>559,923,000(15.09.02) / 391,946,000(70%)</t>
-  </si>
-  <si>
-    <t>손영진</t>
-  </si>
-  <si>
-    <t>서부8계</t>
-  </si>
-  <si>
-    <t>서울 용산구 한남동 760-2</t>
-  </si>
-  <si>
-    <t>517,280,000(13.10.31) / 331,059,000(64%)</t>
-  </si>
-  <si>
-    <t>황창호</t>
-  </si>
-  <si>
-    <t>고양2계</t>
-  </si>
-  <si>
-    <t>경기 고양시 일산서구 가좌동 1105 가좌마을7단지 꿈에그린 703동 18층 1804호(10214) 경기 고양시 일산서구 송포로 207</t>
-  </si>
-  <si>
-    <t>560,000,000(15.10.12) / 560,000,000(100%)</t>
-  </si>
-  <si>
-    <t>방정미</t>
-  </si>
-  <si>
-    <t>안산6계</t>
-  </si>
-  <si>
-    <t>경기 시흥시 미산동 350-15 해가든더클래식 104동 21층 2101호(14944) 경기 시흥시 미산로100번길 11</t>
-  </si>
-  <si>
-    <t>551,000,000(14.08.22) / 385,700,000(70%)</t>
-  </si>
-  <si>
-    <t>남현지</t>
-  </si>
-  <si>
-    <t>의정부10계</t>
-  </si>
-  <si>
-    <t>경기 양주시 백석읍 방성리 493[일괄]494-,</t>
-  </si>
-  <si>
-    <t>560,564,000(15.01.16) / 358,761,000(64%)</t>
-  </si>
-  <si>
-    <t>엄재권</t>
-  </si>
-  <si>
-    <t>춘천3계</t>
-  </si>
-  <si>
-    <t>강원 춘천시 남산면 방곡리 126-11(24465) 강원 춘천시 남산면 한치로 51-1</t>
-  </si>
-  <si>
-    <t>582,206,720(15.06.04) / 407,545,000(70%)</t>
-  </si>
-  <si>
-    <t>장필선</t>
-  </si>
-  <si>
-    <t>김천3계</t>
-  </si>
-  <si>
-    <t>경북 구미시 도량동 322-22(39200) 경북 구미시 도봉로5안길 7-3</t>
-  </si>
-  <si>
-    <t>519,150,000(15.09.23) / 519,150,000(100%)</t>
-  </si>
-  <si>
-    <t>김교환</t>
-  </si>
-  <si>
-    <t>청주2계</t>
-  </si>
-  <si>
-    <t>충북 청주시 상당구 용암동 2876(28761) 충북 청주시 상당구 용암북로206번길 6</t>
-  </si>
-  <si>
-    <t>517,662,480(15.05.28) / 414,130,000(80%)</t>
-  </si>
-  <si>
-    <t>김광진</t>
-  </si>
-  <si>
-    <t>의정부12계</t>
-  </si>
-  <si>
-    <t>경기 양주시 장흥면 일영리 79-2[일괄]80-, 81-2, 66-1, -1,</t>
-  </si>
-  <si>
-    <t>536,452,000(15.06.18) / 429,162,000(80%)</t>
-  </si>
-  <si>
-    <t>박윤</t>
-  </si>
-  <si>
-    <t>고양13계</t>
-  </si>
-  <si>
-    <t>경기 고양시 일산서구 가좌동 1105 가좌마을 7단지꿈에그린 706동 8층 804호(10214) 경기 고양시 일산서구 송포로 207</t>
-  </si>
-  <si>
-    <t>520,000,000(15.04.27) / 520,000,000(100%)</t>
-  </si>
-  <si>
-    <t>성창희외2/성창희외1</t>
-  </si>
-  <si>
-    <t>군산1계</t>
-  </si>
-  <si>
-    <t>전북 익산시 마동 76-11 ,-47[일괄]-47,(54613) 전북 익산시 서동로30길 19</t>
-  </si>
-  <si>
-    <t>518,043,500(15.08.12) / 253,841,000(49%)</t>
+    <t>청주2계2015-9465</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>충북 청주시 청원구 오창읍 양청리 762-8 1동(28115) 충북 청주시 청원구 오창읍 양청길 65-9</t>
+  </si>
+  <si>
+    <t>777,161,000(15.07.10)</t>
+  </si>
+  <si>
+    <t>621,729,000(80%)</t>
+  </si>
+  <si>
+    <t>창원4계2015-4760</t>
+  </si>
+  <si>
+    <t>양인규</t>
+  </si>
+  <si>
+    <t>경남 김해시 율하동 1310-1(51019) 경남 김해시 율하2로88번길 28</t>
+  </si>
+  <si>
+    <t>751,419,450(15.04.15)</t>
+  </si>
+  <si>
+    <t>751,419,450(100%)</t>
+  </si>
+  <si>
+    <t>고양12계2015-2917</t>
+  </si>
+  <si>
+    <t>이을세</t>
+  </si>
+  <si>
+    <t>경기 파주시 목동동 1122-2(10900) 경기 파주시 와석순환로252번길 16</t>
+  </si>
+  <si>
+    <t>716,830,000(15.02.02)</t>
+  </si>
+  <si>
+    <t>501,781,000(70%)</t>
+  </si>
+  <si>
+    <t>목포5계2015-3618</t>
+  </si>
+  <si>
+    <t>이영자</t>
+  </si>
+  <si>
+    <t>전남 목포시 상동 949-7(58697) 전남 목포시 하당로 78</t>
+  </si>
+  <si>
+    <t>744,469,200(15.04.16)</t>
+  </si>
+  <si>
+    <t>416,902,000(56%)</t>
+  </si>
+  <si>
+    <t>동부3계2015-1363</t>
+  </si>
+  <si>
+    <t>김희정</t>
+  </si>
+  <si>
+    <t>서울 강동구 둔촌동 172-1 ,180-1 둔촌주공 410동 9층 904호(05409) 서울 강동구 양재대로 1340</t>
+  </si>
+  <si>
+    <t>790,000,000(15.02.09)</t>
+  </si>
+  <si>
+    <t>632,000,000(80%)</t>
+  </si>
+  <si>
+    <t>전주4계2015-7447</t>
+  </si>
+  <si>
+    <t>박봉영</t>
+  </si>
+  <si>
+    <t>전북 전주시 덕진구 우아동2가 896-9(55022) 전북 전주시 덕진구 아중7길 13-7</t>
+  </si>
+  <si>
+    <t>726,865,500(15.07.09)</t>
+  </si>
+  <si>
+    <t>508,806,000(70%)</t>
+  </si>
+  <si>
+    <t>성남7계2014-18195[3]</t>
+  </si>
+  <si>
+    <t>권재형외1</t>
+  </si>
+  <si>
+    <t>경기 광주시 중부면 검복리 45-1 ,-9,-28[일괄]-9, -28, -29, -39,(12702) 경기 광주시 중부면 남한산성로 536-19</t>
+  </si>
+  <si>
+    <t>787,159,150(14.08.27)</t>
+  </si>
+  <si>
+    <t>132,298,000(17%)</t>
+  </si>
+  <si>
+    <t>군산5계2014-7702</t>
+  </si>
+  <si>
+    <t>김주연</t>
+  </si>
+  <si>
+    <t>전북 익산시 춘포면 춘포리 79-1(54581) 전북 익산시 춘포면 신촌1길 3</t>
+  </si>
+  <si>
+    <t>736,241,240(14.08.05)</t>
+  </si>
+  <si>
+    <t>360,758,000(49%)</t>
+  </si>
+  <si>
+    <t>의정부6계2015-11239</t>
+  </si>
+  <si>
+    <t>김철환외3</t>
+  </si>
+  <si>
+    <t>경기 남양주시 와부읍 율석리 516-4(12201) 경기 남양주시 와부읍 석실로408번길 145-7</t>
+  </si>
+  <si>
+    <t>789,412,000(15.03.26)</t>
+  </si>
+  <si>
+    <t>404,179,000(51%)</t>
+  </si>
+  <si>
+    <t>대전6계2015-12611</t>
+  </si>
+  <si>
+    <t>김상봉</t>
+  </si>
+  <si>
+    <t>대전 서구 용문동 279-12 용문빌라(35302) 대전 서구 괴정로165번길 40-29</t>
+  </si>
+  <si>
+    <t>707,335,720(15.06.10)</t>
+  </si>
+  <si>
+    <t>495,135,000(70%)</t>
+  </si>
+  <si>
+    <t>청주2계2013-7236[1]</t>
+  </si>
+  <si>
+    <t>임정희/김동환</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 사창동 385-13 ,-20,386-15,-19 대승중문타운 1층 101호(28643) 충북 청주시 서원구 내수동로102번길 52-1(구: 충북 청주시 흥덕구 사창동  385-13)</t>
+  </si>
+  <si>
+    <t>703,000,000(13.05.30)</t>
+  </si>
+  <si>
+    <t>449,920,000(64%)</t>
+  </si>
+  <si>
+    <t>남부3계2015-102634</t>
+  </si>
+  <si>
+    <t>송동준</t>
+  </si>
+  <si>
+    <t>서울 금천구 시흥동 909-15(08642) 서울 금천구 금하로 700</t>
+  </si>
+  <si>
+    <t>791,768,900(15.09.25)</t>
+  </si>
+  <si>
+    <t>791,768,900(100%)</t>
   </si>
 </sst>
 </file>
@@ -540,17 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,215 +572,212 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
         <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
